--- a/vehicle_routes_with_distances_and_times_2.xlsx
+++ b/vehicle_routes_with_distances_and_times_2.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5 (Load: 10, Time: 125.00) -&gt; 2 (Load: 40, Time: 373.00) -&gt; 1 (Load: 50, Time: 1024.78) -&gt; 7 (Load: 70, Time: 1122.59) -&gt; 3 (Load: 80, Time: 1216.71) -&gt; 4 (Load: 90, Time: 1310.32) -&gt; 8 (Load: 110, Time: 1427.00) -&gt; 6 (Load: 130, Time: 2627.00) -&gt; Depot (Load: 130, Time: 2742.30)</t>
+          <t>5 (Load: 10, Time: 125.00) -&gt; 2 (Load: 40, Time: 220.83) -&gt; 1 (Load: 50, Time: 1024.78) -&gt; 7 (Load: 70, Time: 1122.59) -&gt; 3 (Load: 80, Time: 1216.71) -&gt; 4 (Load: 90, Time: 1310.32) -&gt; 8 (Load: 110, Time: 1427.00) -&gt; 6 (Load: 130, Time: 2627.00) -&gt; Depot (Load: 130, Time: 2742.30)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>125.00 -&gt; 373.00 -&gt; 1024.78 -&gt; 1122.59 -&gt; 1216.71 -&gt; 1310.32 -&gt; 1427.00 -&gt; 2627.00 -&gt; 2742.30</t>
+          <t>125.00 -&gt; 220.83 -&gt; 1024.78 -&gt; 1122.59 -&gt; 1216.71 -&gt; 1310.32 -&gt; 1427.00 -&gt; 2627.00 -&gt; 2742.30</t>
         </is>
       </c>
       <c r="E2" t="n">

--- a/vehicle_routes_with_distances_and_times_2.xlsx
+++ b/vehicle_routes_with_distances_and_times_2.xlsx
@@ -469,40 +469,40 @@
       <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>5 (Load: 10, Time: 125.00) -&gt; 2 (Load: 40, Time: 220.83) -&gt; 1 (Load: 50, Time: 1024.78) -&gt; 7 (Load: 70, Time: 1122.59) -&gt; 3 (Load: 80, Time: 1216.71) -&gt; 4 (Load: 90, Time: 1310.32) -&gt; 8 (Load: 110, Time: 1427.00) -&gt; 6 (Load: 130, Time: 2627.00) -&gt; Depot (Load: 130, Time: 2742.30)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>15.13 -&gt; 5.83 -&gt; 8.60 -&gt; 7.81 -&gt; 4.12 -&gt; 3.61 -&gt; 26.68 -&gt; 25.46 -&gt; 25.30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>125.00 -&gt; 220.83 -&gt; 1024.78 -&gt; 1122.59 -&gt; 1216.71 -&gt; 1310.32 -&gt; 1427.00 -&gt; 2627.00 -&gt; 2742.30</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>122.5423232216132</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4 (Load: 10, Time: 121.00) -&gt; 3 (Load: 20, Time: 214.61) -&gt; 7 (Load: 40, Time: 308.73) -&gt; 1 (Load: 50, Time: 1133.13) -&gt; 2 (Load: 80, Time: 1231.74) -&gt; 5 (Load: 90, Time: 1327.57) -&gt; 8 (Load: 110, Time: 1427.00) -&gt; 6 (Load: 130, Time: 2627.00) -&gt; Depot (Load: 130, Time: 2742.30)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25.61 -&gt; 3.61 -&gt; 4.12 -&gt; 7.81 -&gt; 8.60 -&gt; 5.83 -&gt; 9.43 -&gt; 25.46 -&gt; 25.30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>121.00 -&gt; 214.61 -&gt; 308.73 -&gt; 1133.13 -&gt; 1231.74 -&gt; 1327.57 -&gt; 1427.00 -&gt; 2627.00 -&gt; 2742.30</t>
+        </is>
+      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>115.772727224727</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
